--- a/REGULAR/OJT/NEW DONE/CRUZADA, MAGDALENA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CRUZADA, MAGDALENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF91068-22E3-488A-BB10-F7A145F602F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D2F78-CE6E-4EAD-86E9-0A6118E7FE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="326">
   <si>
     <t>PERIOD</t>
   </si>
@@ -998,9 +998,6 @@
   </si>
   <si>
     <t>VL(2-0-0)</t>
-  </si>
-  <si>
-    <t>4/20,21/2023</t>
   </si>
   <si>
     <t>ADMIN ASST I</t>
@@ -3826,7 +3823,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1896" topLeftCell="A490" activePane="bottomLeft"/>
       <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="B504" sqref="B504"/>
+      <selection pane="bottomLeft" activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3870,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="22" t="s">
@@ -3890,14 +3887,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="25" t="s">
@@ -3989,7 +3986,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>138.9309999999999</v>
+        <v>139.9309999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14980,7 +14977,7 @@
       </c>
       <c r="C502" s="13"/>
       <c r="D502" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
@@ -14991,14 +14988,14 @@
       <c r="H502" s="38"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
-      <c r="K502" s="20" t="s">
-        <v>321</v>
+      <c r="K502" s="57">
+        <v>45036</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C503" s="13"/>
       <c r="D503" s="38"/>
@@ -15012,7 +15009,7 @@
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
       <c r="K503" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">

--- a/REGULAR/OJT/NEW DONE/CRUZADA, MAGDALENA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CRUZADA, MAGDALENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6D2F78-CE6E-4EAD-86E9-0A6118E7FE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="326">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1018,7 +1017,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1905,7 +1904,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1947,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2011,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2071,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2137,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,7 +2200,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2298,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2357,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2422,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2465,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2540,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2726,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2792,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2851,7 +2850,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +2916,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2973,7 +2972,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +3047,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3090,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,7 +3156,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3212,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3310,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,7 +3373,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,25 +3439,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K505" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K505" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3470,13 +3469,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3485,14 +3484,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3796,7 +3795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3806,7 +3805,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3814,34 +3813,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1896" topLeftCell="A490" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A490" activePane="bottomLeft"/>
       <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="E504" sqref="E504"/>
+      <selection pane="bottomLeft" activeCell="H505" sqref="H505"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3862,7 +3861,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3882,7 +3881,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3904,7 +3903,7 @@
       <c r="J4" s="65"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3912,7 +3911,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3925,7 +3924,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3942,7 +3941,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
@@ -3996,12 +3995,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>276.29000000000002</v>
+        <v>275.29000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4025,7 +4024,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
@@ -4045,7 +4044,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>47</v>
       </c>
@@ -4063,7 +4062,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>35947</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>50</v>
@@ -4107,7 +4106,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <f>EDATE(A13,1)</f>
         <v>35977</v>
@@ -4134,7 +4133,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
@@ -4151,7 +4150,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <f>EDATE(A15,1)</f>
         <v>36008</v>
@@ -4172,7 +4171,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <f t="shared" ref="A18:A21" si="0">EDATE(A17,1)</f>
         <v>36039</v>
@@ -4193,7 +4192,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -4218,7 +4217,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -4243,7 +4242,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -4264,7 +4263,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>55</v>
       </c>
@@ -4282,7 +4281,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>36161</v>
       </c>
@@ -4306,7 +4305,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <f>EDATE(A23,1)</f>
         <v>36192</v>
@@ -4331,7 +4330,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <f t="shared" ref="A25:A40" si="1">EDATE(A24,1)</f>
         <v>36220</v>
@@ -4358,7 +4357,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="20" t="s">
         <v>59</v>
@@ -4378,7 +4377,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <f>EDATE(A25,1)</f>
         <v>36251</v>
@@ -4405,7 +4404,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>60</v>
@@ -4424,7 +4423,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>62</v>
@@ -4444,7 +4443,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f>EDATE(A27,1)</f>
         <v>36281</v>
@@ -4469,7 +4468,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="20" t="s">
         <v>64</v>
@@ -4489,7 +4488,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f>EDATE(A30,1)</f>
         <v>36312</v>
@@ -4514,7 +4513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
         <v>58</v>
@@ -4533,7 +4532,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>65</v>
@@ -4550,7 +4549,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <f>EDATE(A32,1)</f>
         <v>36342</v>
@@ -4575,7 +4574,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -4602,7 +4601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="20" t="s">
         <v>58</v>
@@ -4621,7 +4620,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <f>EDATE(A36,1)</f>
         <v>36404</v>
@@ -4642,7 +4641,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4667,7 +4666,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4694,7 +4693,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="20" t="s">
         <v>70</v>
@@ -4714,7 +4713,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f>EDATE(A40,1)</f>
         <v>36495</v>
@@ -4741,7 +4740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="20" t="s">
         <v>73</v>
@@ -4761,7 +4760,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>74</v>
       </c>
@@ -4779,7 +4778,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>36526</v>
       </c>
@@ -4803,7 +4802,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <f>EDATE(A45,1)</f>
         <v>36557</v>
@@ -4830,7 +4829,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="20" t="s">
         <v>76</v>
@@ -4850,7 +4849,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="20" t="s">
         <v>48</v>
@@ -4870,7 +4869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <f>EDATE(A46,1)</f>
         <v>36586</v>
@@ -4895,7 +4894,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <f t="shared" ref="A50:A65" si="2">EDATE(A49,1)</f>
         <v>36617</v>
@@ -4922,7 +4921,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>78</v>
@@ -4942,7 +4941,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <f>EDATE(A50,1)</f>
         <v>36647</v>
@@ -4969,7 +4968,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>80</v>
@@ -4989,7 +4988,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <f>EDATE(A52,1)</f>
         <v>36678</v>
@@ -5016,7 +5015,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="20" t="s">
         <v>48</v>
@@ -5036,7 +5035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20" t="s">
         <v>80</v>
@@ -5056,7 +5055,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <f>EDATE(A54,1)</f>
         <v>36708</v>
@@ -5083,7 +5082,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="20" t="s">
         <v>83</v>
@@ -5103,7 +5102,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <f>EDATE(A57,1)</f>
         <v>36739</v>
@@ -5128,7 +5127,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -5155,7 +5154,7 @@
         <v>37865</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20" t="s">
         <v>58</v>
@@ -5174,7 +5173,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="20" t="s">
         <v>48</v>
@@ -5194,7 +5193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>84</v>
@@ -5211,7 +5210,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <f>EDATE(A60,1)</f>
         <v>36800</v>
@@ -5236,7 +5235,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -5263,7 +5262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <f>EDATE(A65,1)</f>
         <v>36861</v>
@@ -5290,7 +5289,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="20" t="s">
         <v>88</v>
@@ -5310,7 +5309,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="51" t="s">
         <v>89</v>
       </c>
@@ -5328,7 +5327,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>36892</v>
       </c>
@@ -5352,7 +5351,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <f>EDATE(A69,1)</f>
         <v>36923</v>
@@ -5373,7 +5372,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <f t="shared" ref="A71:A79" si="3">EDATE(A70,1)</f>
         <v>36951</v>
@@ -5398,7 +5397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <f t="shared" si="3"/>
         <v>36982</v>
@@ -5425,7 +5424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -5446,7 +5445,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <f t="shared" si="3"/>
         <v>37043</v>
@@ -5467,7 +5466,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -5494,7 +5493,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <f t="shared" si="3"/>
         <v>37104</v>
@@ -5515,7 +5514,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <f t="shared" si="3"/>
         <v>37135</v>
@@ -5536,7 +5535,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <f>EDATE(A77,1)</f>
         <v>37165</v>
@@ -5563,7 +5562,7 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <f t="shared" si="3"/>
         <v>37196</v>
@@ -5590,7 +5589,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="20" t="s">
         <v>60</v>
@@ -5612,7 +5611,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f>EDATE(A79,1)</f>
         <v>37226</v>
@@ -5633,7 +5632,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="51" t="s">
         <v>94</v>
       </c>
@@ -5651,7 +5650,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>37257</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>46753</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <f>EDATE(A83,1)</f>
         <v>37288</v>
@@ -5704,7 +5703,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <f t="shared" ref="A85:A96" si="4">EDATE(A84,1)</f>
         <v>37316</v>
@@ -5725,7 +5724,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <f t="shared" si="4"/>
         <v>37347</v>
@@ -5752,7 +5751,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="20" t="s">
         <v>60</v>
@@ -5774,7 +5773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <f>EDATE(A86,1)</f>
         <v>37377</v>
@@ -5801,7 +5800,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>48</v>
@@ -5821,7 +5820,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <f>EDATE(A88,1)</f>
         <v>37408</v>
@@ -5846,7 +5845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <f t="shared" si="4"/>
         <v>37438</v>
@@ -5871,7 +5870,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <f t="shared" si="4"/>
         <v>37469</v>
@@ -5892,7 +5891,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <f t="shared" si="4"/>
         <v>37500</v>
@@ -5913,7 +5912,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <f t="shared" si="4"/>
         <v>37530</v>
@@ -5934,7 +5933,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39">
         <f>EDATE(A94,1)</f>
         <v>37561</v>
@@ -5961,7 +5960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <f t="shared" si="4"/>
         <v>37591</v>
@@ -5982,7 +5981,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="51" t="s">
         <v>101</v>
       </c>
@@ -6000,7 +5999,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <v>37622</v>
       </c>
@@ -6020,7 +6019,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <f>EDATE(A98,1)</f>
         <v>37653</v>
@@ -6041,7 +6040,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <f t="shared" ref="A100:A109" si="5">EDATE(A99,1)</f>
         <v>37681</v>
@@ -6062,7 +6061,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -6083,7 +6082,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -6104,7 +6103,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -6125,7 +6124,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -6146,7 +6145,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -6167,7 +6166,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -6188,7 +6187,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -6213,7 +6212,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -6238,7 +6237,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39">
         <f t="shared" si="5"/>
         <v>37956</v>
@@ -6265,7 +6264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="20" t="s">
         <v>60</v>
@@ -6287,7 +6286,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>105</v>
@@ -6307,7 +6306,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="20" t="s">
         <v>106</v>
@@ -6327,7 +6326,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="51" t="s">
         <v>107</v>
       </c>
@@ -6345,7 +6344,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39">
         <v>37987</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>46753</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="20" t="s">
         <v>108</v>
@@ -6388,7 +6387,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <f>EDATE(A114,1)</f>
         <v>38018</v>
@@ -6413,7 +6412,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <f t="shared" ref="A117:A127" si="6">EDATE(A116,1)</f>
         <v>38047</v>
@@ -6438,7 +6437,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <f t="shared" si="6"/>
         <v>38078</v>
@@ -6465,7 +6464,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="20" t="s">
         <v>58</v>
@@ -6484,7 +6483,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="20" t="s">
         <v>75</v>
@@ -6501,7 +6500,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <f>EDATE(A118,1)</f>
         <v>38108</v>
@@ -6528,7 +6527,7 @@
         <v>46508</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="20" t="s">
         <v>110</v>
@@ -6545,7 +6544,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39">
         <f>EDATE(A121,1)</f>
         <v>38139</v>
@@ -6570,7 +6569,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39">
         <f t="shared" si="6"/>
         <v>38169</v>
@@ -6597,7 +6596,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>111</v>
@@ -6614,7 +6613,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39">
         <f>EDATE(A124,1)</f>
         <v>38200</v>
@@ -6639,7 +6638,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -6666,7 +6665,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39"/>
       <c r="B128" s="20" t="s">
         <v>69</v>
@@ -6683,7 +6682,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <f>EDATE(A127,1)</f>
         <v>38261</v>
@@ -6708,7 +6707,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="20" t="s">
         <v>113</v>
@@ -6728,7 +6727,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <f>EDATE(A129,1)</f>
         <v>38292</v>
@@ -6755,7 +6754,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
       <c r="B132" s="20" t="s">
         <v>115</v>
@@ -6775,7 +6774,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <f>EDATE(A131,1)</f>
         <v>38322</v>
@@ -6802,7 +6801,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>117</v>
@@ -6822,7 +6821,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="51" t="s">
         <v>118</v>
       </c>
@@ -6840,7 +6839,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <v>38353</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>46023</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="20" t="s">
         <v>76</v>
@@ -6883,7 +6882,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <f>EDATE(A136,1)</f>
         <v>38384</v>
@@ -6908,7 +6907,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <f t="shared" ref="A139:A150" si="7">EDATE(A138,1)</f>
         <v>38412</v>
@@ -6933,7 +6932,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="39">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -6960,7 +6959,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39"/>
       <c r="B141" s="20" t="s">
         <v>58</v>
@@ -6979,7 +6978,7 @@
         <v>47209</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="39"/>
       <c r="B142" s="20" t="s">
         <v>117</v>
@@ -6996,7 +6995,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="39">
         <f>EDATE(A140,1)</f>
         <v>38473</v>
@@ -7021,7 +7020,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="39"/>
       <c r="B144" s="20" t="s">
         <v>62</v>
@@ -7041,7 +7040,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="39"/>
       <c r="B145" s="20" t="s">
         <v>48</v>
@@ -7058,7 +7057,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="39"/>
       <c r="B146" s="20" t="s">
         <v>48</v>
@@ -7075,7 +7074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="39">
         <f>EDATE(A143,1)</f>
         <v>38504</v>
@@ -7100,7 +7099,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="39">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -7125,7 +7124,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="39">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -7150,7 +7149,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="39">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -7175,7 +7174,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="39">
         <f>EDATE(A150,1)</f>
         <v>38626</v>
@@ -7202,7 +7201,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="39"/>
       <c r="B152" s="20" t="s">
         <v>128</v>
@@ -7222,7 +7221,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="39">
         <f>EDATE(A151,1)</f>
         <v>38657</v>
@@ -7249,7 +7248,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
       <c r="B154" s="20" t="s">
         <v>131</v>
@@ -7269,7 +7268,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="39">
         <f>EDATE(A153,1)</f>
         <v>38687</v>
@@ -7296,7 +7295,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39"/>
       <c r="B156" s="20" t="s">
         <v>133</v>
@@ -7316,7 +7315,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="51" t="s">
         <v>134</v>
       </c>
@@ -7334,7 +7333,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <v>38718</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>46388</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
       <c r="B159" s="20" t="s">
         <v>135</v>
@@ -7380,7 +7379,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <f>EDATE(A158,1)</f>
         <v>38749</v>
@@ -7405,7 +7404,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <f t="shared" ref="A161:A178" si="8">EDATE(A160,1)</f>
         <v>38777</v>
@@ -7432,7 +7431,7 @@
         <v>11018</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
       <c r="B162" s="20" t="s">
         <v>137</v>
@@ -7452,7 +7451,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <f>EDATE(A161,1)</f>
         <v>38808</v>
@@ -7477,7 +7476,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39"/>
       <c r="B164" s="20" t="s">
         <v>48</v>
@@ -7497,7 +7496,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <f>EDATE(A163,1)</f>
         <v>38838</v>
@@ -7524,7 +7523,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39"/>
       <c r="B166" s="20" t="s">
         <v>127</v>
@@ -7543,7 +7542,7 @@
         <v>46143</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>140</v>
@@ -7560,7 +7559,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39">
         <f>EDATE(A165,1)</f>
         <v>38869</v>
@@ -7585,7 +7584,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>141</v>
@@ -7602,7 +7601,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="39">
         <f>EDATE(A168,1)</f>
         <v>38899</v>
@@ -7629,7 +7628,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39"/>
       <c r="B171" s="20" t="s">
         <v>142</v>
@@ -7649,7 +7648,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="39">
         <f>EDATE(A170,1)</f>
         <v>38930</v>
@@ -7674,7 +7673,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="39">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -7699,7 +7698,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="39"/>
       <c r="B174" s="20" t="s">
         <v>144</v>
@@ -7719,7 +7718,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="39">
         <f>EDATE(A173,1)</f>
         <v>38991</v>
@@ -7746,7 +7745,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="39"/>
       <c r="B176" s="20" t="s">
         <v>148</v>
@@ -7766,7 +7765,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="39">
         <f>EDATE(A175,1)</f>
         <v>39022</v>
@@ -7791,7 +7790,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="39">
         <f t="shared" si="8"/>
         <v>39052</v>
@@ -7818,7 +7817,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="39"/>
       <c r="B179" s="20" t="s">
         <v>150</v>
@@ -7838,7 +7837,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="15"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="51" t="s">
         <v>151</v>
       </c>
@@ -7856,7 +7855,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="15"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="39">
         <v>39083</v>
       </c>
@@ -7882,7 +7881,7 @@
         <v>46023</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="39"/>
       <c r="B182" s="20" t="s">
         <v>155</v>
@@ -7902,7 +7901,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="15"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="39">
         <f>EDATE(A181,1)</f>
         <v>39114</v>
@@ -7927,7 +7926,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="15"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="39">
         <f t="shared" ref="A184:A198" si="9">EDATE(A183,1)</f>
         <v>39142</v>
@@ -7954,7 +7953,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="39"/>
       <c r="B185" s="20" t="s">
         <v>58</v>
@@ -7976,7 +7975,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39"/>
       <c r="B186" s="20" t="s">
         <v>157</v>
@@ -7996,7 +7995,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="15"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <f>EDATE(A184,1)</f>
         <v>39173</v>
@@ -8023,7 +8022,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39"/>
       <c r="B188" s="20" t="s">
         <v>48</v>
@@ -8040,7 +8039,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>158</v>
@@ -8057,7 +8056,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="15"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <f>EDATE(A187,1)</f>
         <v>39203</v>
@@ -8082,7 +8081,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="15"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -8107,7 +8106,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39"/>
       <c r="B192" s="20" t="s">
         <v>59</v>
@@ -8124,7 +8123,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <f>EDATE(A191,1)</f>
         <v>39264</v>
@@ -8149,7 +8148,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="15"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -8174,7 +8173,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="15"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <f t="shared" si="9"/>
         <v>39326</v>
@@ -8201,7 +8200,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39"/>
       <c r="B196" s="20" t="s">
         <v>164</v>
@@ -8218,7 +8217,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="15"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <f>EDATE(A195,1)</f>
         <v>39356</v>
@@ -8243,7 +8242,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="15"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -8270,7 +8269,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39"/>
       <c r="B199" s="20" t="s">
         <v>48</v>
@@ -8287,7 +8286,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="39"/>
       <c r="B200" s="20" t="s">
         <v>58</v>
@@ -8306,7 +8305,7 @@
         <v>47058</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39"/>
       <c r="B201" s="20" t="s">
         <v>167</v>
@@ -8323,7 +8322,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="15"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39">
         <f>EDATE(A198,1)</f>
         <v>39417</v>
@@ -8348,7 +8347,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="15"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="51" t="s">
         <v>152</v>
       </c>
@@ -8366,7 +8365,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="15"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <v>39448</v>
       </c>
@@ -8392,7 +8391,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39"/>
       <c r="B205" s="20" t="s">
         <v>171</v>
@@ -8409,7 +8408,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="15"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39">
         <f>EDATE(A204,1)</f>
         <v>39479</v>
@@ -8434,7 +8433,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="15"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <f t="shared" ref="A207:A216" si="10">EDATE(A206,1)</f>
         <v>39508</v>
@@ -8461,7 +8460,7 @@
         <v>41334</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="39"/>
       <c r="B208" s="20" t="s">
         <v>129</v>
@@ -8480,7 +8479,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
       <c r="B209" s="20" t="s">
         <v>48</v>
@@ -8497,7 +8496,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39"/>
       <c r="B210" s="20" t="s">
         <v>170</v>
@@ -8514,7 +8513,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <f>EDATE(A207,1)</f>
         <v>39539</v>
@@ -8539,7 +8538,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="15"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -8564,7 +8563,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="20" t="s">
         <v>175</v>
@@ -8584,7 +8583,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="15"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <f>EDATE(A212,1)</f>
         <v>39600</v>
@@ -8609,7 +8608,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="15"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="39">
         <f t="shared" si="10"/>
         <v>39630</v>
@@ -8634,7 +8633,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="15"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39">
         <f t="shared" si="10"/>
         <v>39661</v>
@@ -8661,7 +8660,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39"/>
       <c r="B217" s="20" t="s">
         <v>180</v>
@@ -8678,7 +8677,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="15"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39">
         <f>EDATE(A216,1)</f>
         <v>39692</v>
@@ -8705,7 +8704,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39"/>
       <c r="B219" s="20" t="s">
         <v>181</v>
@@ -8722,7 +8721,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="15"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <f>EDATE(A218,1)</f>
         <v>39722</v>
@@ -8749,7 +8748,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39"/>
       <c r="B221" s="20" t="s">
         <v>182</v>
@@ -8766,7 +8765,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="15"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <f>EDATE(A220,1)</f>
         <v>39753</v>
@@ -8791,7 +8790,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39"/>
       <c r="B223" s="20" t="s">
         <v>105</v>
@@ -8810,7 +8809,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39"/>
       <c r="B224" s="20" t="s">
         <v>184</v>
@@ -8827,7 +8826,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <f>EDATE(A222,1)</f>
         <v>39783</v>
@@ -8852,7 +8851,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="51" t="s">
         <v>153</v>
       </c>
@@ -8870,7 +8869,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <v>39814</v>
       </c>
@@ -8896,7 +8895,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39"/>
       <c r="B228" s="20" t="s">
         <v>58</v>
@@ -8915,7 +8914,7 @@
         <v>46388</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39"/>
       <c r="B229" s="20" t="s">
         <v>188</v>
@@ -8932,7 +8931,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="39">
         <f>EDATE(A227,1)</f>
         <v>39845</v>
@@ -8959,7 +8958,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39"/>
       <c r="B231" s="20" t="s">
         <v>189</v>
@@ -8976,7 +8975,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39">
         <f>EDATE(A230,1)</f>
         <v>39873</v>
@@ -9003,7 +9002,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39"/>
       <c r="B233" s="20" t="s">
         <v>190</v>
@@ -9023,7 +9022,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39">
         <f>EDATE(A232,1)</f>
         <v>39904</v>
@@ -9050,7 +9049,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39"/>
       <c r="B235" s="20" t="s">
         <v>191</v>
@@ -9067,7 +9066,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39">
         <f>EDATE(A234,1)</f>
         <v>39934</v>
@@ -9094,7 +9093,7 @@
         <v>46143</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39"/>
       <c r="B237" s="20" t="s">
         <v>48</v>
@@ -9111,7 +9110,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39"/>
       <c r="B238" s="20" t="s">
         <v>193</v>
@@ -9128,7 +9127,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="52"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39">
         <f>EDATE(A236,1)</f>
         <v>39965</v>
@@ -9153,7 +9152,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="39"/>
       <c r="B240" s="20" t="s">
         <v>195</v>
@@ -9173,7 +9172,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <f>EDATE(A239,1)</f>
         <v>39995</v>
@@ -9198,7 +9197,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="39"/>
       <c r="B242" s="20" t="s">
         <v>197</v>
@@ -9218,7 +9217,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <f>EDATE(A241,1)</f>
         <v>40026</v>
@@ -9243,7 +9242,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39">
         <f t="shared" ref="A244:A249" si="11">EDATE(A243,1)</f>
         <v>40057</v>
@@ -9268,7 +9267,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39">
         <f t="shared" si="11"/>
         <v>40087</v>
@@ -9295,7 +9294,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="39"/>
       <c r="B246" s="20" t="s">
         <v>58</v>
@@ -9314,7 +9313,7 @@
         <v>46661</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="39"/>
       <c r="B247" s="20" t="s">
         <v>200</v>
@@ -9331,7 +9330,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39">
         <f>EDATE(A245,1)</f>
         <v>40118</v>
@@ -9356,7 +9355,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39">
         <f t="shared" si="11"/>
         <v>40148</v>
@@ -9383,7 +9382,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39"/>
       <c r="B250" s="20" t="s">
         <v>48</v>
@@ -9400,7 +9399,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39"/>
       <c r="B251" s="20" t="s">
         <v>202</v>
@@ -9417,7 +9416,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="51" t="s">
         <v>154</v>
       </c>
@@ -9435,7 +9434,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="39">
         <v>40179</v>
       </c>
@@ -9459,7 +9458,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39">
         <f>EDATE(A253,1)</f>
         <v>40210</v>
@@ -9484,7 +9483,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39">
         <f t="shared" ref="A255:A277" si="12">EDATE(A254,1)</f>
         <v>40238</v>
@@ -9509,7 +9508,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39">
         <f t="shared" si="12"/>
         <v>40269</v>
@@ -9536,7 +9535,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39"/>
       <c r="B257" s="20" t="s">
         <v>58</v>
@@ -9555,7 +9554,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39"/>
       <c r="B258" s="20" t="s">
         <v>58</v>
@@ -9574,7 +9573,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>208</v>
@@ -9591,7 +9590,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39">
         <f>EDATE(A256,1)</f>
         <v>40299</v>
@@ -9618,7 +9617,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39"/>
       <c r="B261" s="20" t="s">
         <v>48</v>
@@ -9635,7 +9634,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="39">
         <f>EDATE(A260,1)</f>
         <v>40330</v>
@@ -9660,7 +9659,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39"/>
       <c r="B263" s="20" t="s">
         <v>211</v>
@@ -9680,7 +9679,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39">
         <f>EDATE(A262,1)</f>
         <v>40360</v>
@@ -9707,7 +9706,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="39"/>
       <c r="B265" s="20" t="s">
         <v>67</v>
@@ -9726,7 +9725,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="39"/>
       <c r="B266" s="20" t="s">
         <v>213</v>
@@ -9743,7 +9742,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39">
         <f>EDATE(A264,1)</f>
         <v>40391</v>
@@ -9770,7 +9769,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39"/>
       <c r="B268" s="20" t="s">
         <v>215</v>
@@ -9789,7 +9788,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="39"/>
       <c r="B269" s="20" t="s">
         <v>166</v>
@@ -9808,7 +9807,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39"/>
       <c r="B270" s="20" t="s">
         <v>216</v>
@@ -9827,7 +9826,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39"/>
       <c r="B271" s="20" t="s">
         <v>217</v>
@@ -9844,7 +9843,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39">
         <f>EDATE(A267,1)</f>
         <v>40422</v>
@@ -9871,7 +9870,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="39"/>
       <c r="B273" s="20" t="s">
         <v>222</v>
@@ -9890,7 +9889,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39"/>
       <c r="B274" s="20" t="s">
         <v>109</v>
@@ -9907,7 +9906,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39">
         <f>EDATE(A272,1)</f>
         <v>40452</v>
@@ -9932,7 +9931,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39">
         <f t="shared" si="12"/>
         <v>40483</v>
@@ -9953,7 +9952,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <f t="shared" si="12"/>
         <v>40513</v>
@@ -9974,7 +9973,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="51" t="s">
         <v>225</v>
       </c>
@@ -9992,7 +9991,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39">
         <v>40544</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>11324</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>226</v>
@@ -10035,7 +10034,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39">
         <f>EDATE(A279,1)</f>
         <v>40575</v>
@@ -10062,7 +10061,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39"/>
       <c r="B282" s="20" t="s">
         <v>216</v>
@@ -10084,7 +10083,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39"/>
       <c r="B283" s="20" t="s">
         <v>227</v>
@@ -10104,7 +10103,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="39">
         <f>EDATE(A281,1)</f>
         <v>40603</v>
@@ -10131,7 +10130,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39"/>
       <c r="B285" s="20" t="s">
         <v>210</v>
@@ -10148,7 +10147,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39"/>
       <c r="B286" s="20" t="s">
         <v>124</v>
@@ -10165,7 +10164,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39">
         <f>EDATE(A284,1)</f>
         <v>40634</v>
@@ -10192,7 +10191,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39"/>
       <c r="B288" s="20" t="s">
         <v>58</v>
@@ -10211,7 +10210,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39"/>
       <c r="B289" s="20" t="s">
         <v>230</v>
@@ -10228,7 +10227,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <f>EDATE(A287,1)</f>
         <v>40664</v>
@@ -10255,7 +10254,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39"/>
       <c r="B291" s="20" t="s">
         <v>48</v>
@@ -10272,7 +10271,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39"/>
       <c r="B292" s="20" t="s">
         <v>58</v>
@@ -10291,7 +10290,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39"/>
       <c r="B293" s="20" t="s">
         <v>58</v>
@@ -10310,7 +10309,7 @@
         <v>41791</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39"/>
       <c r="B294" s="20" t="s">
         <v>69</v>
@@ -10327,7 +10326,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39">
         <f>EDATE(A290,1)</f>
         <v>40695</v>
@@ -10354,7 +10353,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39"/>
       <c r="B296" s="20" t="s">
         <v>233</v>
@@ -10374,7 +10373,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39">
         <f>EDATE(A295,1)</f>
         <v>40725</v>
@@ -10401,7 +10400,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39"/>
       <c r="B298" s="20" t="s">
         <v>234</v>
@@ -10421,7 +10420,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39">
         <f>EDATE(A297,1)</f>
         <v>40756</v>
@@ -10448,7 +10447,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="39"/>
       <c r="B300" s="20" t="s">
         <v>59</v>
@@ -10465,7 +10464,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <f>EDATE(A299,1)</f>
         <v>40787</v>
@@ -10492,7 +10491,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39"/>
       <c r="B302" s="20" t="s">
         <v>235</v>
@@ -10512,7 +10511,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39">
         <f>EDATE(A301,1)</f>
         <v>40817</v>
@@ -10539,7 +10538,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39"/>
       <c r="B304" s="20" t="s">
         <v>237</v>
@@ -10556,7 +10555,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="39">
         <f>EDATE(A303,1)</f>
         <v>40848</v>
@@ -10577,7 +10576,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <f t="shared" ref="A306" si="13">EDATE(A305,1)</f>
         <v>40878</v>
@@ -10604,7 +10603,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39"/>
       <c r="B307" s="20" t="s">
         <v>58</v>
@@ -10626,7 +10625,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39"/>
       <c r="B308" s="20" t="s">
         <v>120</v>
@@ -10646,7 +10645,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="51" t="s">
         <v>239</v>
       </c>
@@ -10664,7 +10663,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <v>40909</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39"/>
       <c r="B311" s="20" t="s">
         <v>240</v>
@@ -10710,7 +10709,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39">
         <f>EDATE(A310,1)</f>
         <v>40940</v>
@@ -10731,7 +10730,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39">
         <f t="shared" ref="A313:A330" si="14">EDATE(A312,1)</f>
         <v>40969</v>
@@ -10756,7 +10755,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="39"/>
       <c r="B314" s="20" t="s">
         <v>48</v>
@@ -10773,7 +10772,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39"/>
       <c r="B315" s="20" t="s">
         <v>241</v>
@@ -10790,7 +10789,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <f>EDATE(A313,1)</f>
         <v>41000</v>
@@ -10815,7 +10814,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -10842,7 +10841,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39"/>
       <c r="B318" s="20" t="s">
         <v>127</v>
@@ -10861,7 +10860,7 @@
         <v>47239</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>67</v>
@@ -10880,7 +10879,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39"/>
       <c r="B320" s="20" t="s">
         <v>245</v>
@@ -10899,7 +10898,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>246</v>
@@ -10921,7 +10920,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39"/>
       <c r="B322" s="20" t="s">
         <v>247</v>
@@ -10938,7 +10937,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <f>EDATE(A317,1)</f>
         <v>41061</v>
@@ -10959,7 +10958,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -10986,7 +10985,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>58</v>
@@ -11008,7 +11007,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <f>EDATE(A324,1)</f>
         <v>41122</v>
@@ -11033,7 +11032,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39">
         <f t="shared" si="14"/>
         <v>41153</v>
@@ -11054,7 +11053,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39">
         <f t="shared" si="14"/>
         <v>41183</v>
@@ -11079,7 +11078,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <f t="shared" si="14"/>
         <v>41214</v>
@@ -11100,7 +11099,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <f t="shared" si="14"/>
         <v>41244</v>
@@ -11127,7 +11126,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="51" t="s">
         <v>252</v>
       </c>
@@ -11145,7 +11144,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39">
         <v>41275</v>
       </c>
@@ -11169,7 +11168,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <f>EDATE(A332,1)</f>
         <v>41306</v>
@@ -11194,7 +11193,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39">
         <f t="shared" ref="A334:A345" si="15">EDATE(A333,1)</f>
         <v>41334</v>
@@ -11219,7 +11218,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <f t="shared" si="15"/>
         <v>41365</v>
@@ -11244,7 +11243,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39"/>
       <c r="B336" s="20" t="s">
         <v>65</v>
@@ -11264,7 +11263,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39">
         <f>EDATE(A335,1)</f>
         <v>41395</v>
@@ -11291,7 +11290,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39"/>
       <c r="B338" s="20" t="s">
         <v>58</v>
@@ -11310,7 +11309,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39"/>
       <c r="B339" s="20" t="s">
         <v>256</v>
@@ -11327,7 +11326,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <f>EDATE(A337,1)</f>
         <v>41426</v>
@@ -11352,7 +11351,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39"/>
       <c r="B341" s="20" t="s">
         <v>62</v>
@@ -11372,7 +11371,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <f>EDATE(A340,1)</f>
         <v>41456</v>
@@ -11397,7 +11396,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <f t="shared" si="15"/>
         <v>41487</v>
@@ -11422,7 +11421,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39">
         <f t="shared" si="15"/>
         <v>41518</v>
@@ -11447,7 +11446,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <f t="shared" si="15"/>
         <v>41548</v>
@@ -11474,7 +11473,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39"/>
       <c r="B346" s="20" t="s">
         <v>167</v>
@@ -11494,7 +11493,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39">
         <f>EDATE(A345,1)</f>
         <v>41579</v>
@@ -11519,7 +11518,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39">
         <f>EDATE(A347,1)</f>
         <v>41609</v>
@@ -11544,7 +11543,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39"/>
       <c r="B349" s="20" t="s">
         <v>260</v>
@@ -11564,7 +11563,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="51" t="s">
         <v>261</v>
       </c>
@@ -11582,7 +11581,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>41640</v>
       </c>
@@ -11606,7 +11605,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <f>EDATE(A351,1)</f>
         <v>41671</v>
@@ -11631,7 +11630,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39">
         <f t="shared" ref="A353:A364" si="16">EDATE(A352,1)</f>
         <v>41699</v>
@@ -11656,7 +11655,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <f t="shared" si="16"/>
         <v>41730</v>
@@ -11681,7 +11680,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <f t="shared" si="16"/>
         <v>41760</v>
@@ -11706,7 +11705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39"/>
       <c r="B356" s="20" t="s">
         <v>58</v>
@@ -11725,7 +11724,7 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39"/>
       <c r="B357" s="20" t="s">
         <v>265</v>
@@ -11742,7 +11741,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <f>EDATE(A355,1)</f>
         <v>41791</v>
@@ -11767,7 +11766,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <f t="shared" si="16"/>
         <v>41821</v>
@@ -11792,7 +11791,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39"/>
       <c r="B360" s="20" t="s">
         <v>267</v>
@@ -11812,7 +11811,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <f>EDATE(A359,1)</f>
         <v>41852</v>
@@ -11839,7 +11838,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39"/>
       <c r="B362" s="20" t="s">
         <v>158</v>
@@ -11859,7 +11858,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <f>EDATE(A361,1)</f>
         <v>41883</v>
@@ -11884,7 +11883,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -11911,7 +11910,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39"/>
       <c r="B365" s="20" t="s">
         <v>269</v>
@@ -11931,7 +11930,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <f>EDATE(A364,1)</f>
         <v>41944</v>
@@ -11958,7 +11957,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39"/>
       <c r="B367" s="20" t="s">
         <v>271</v>
@@ -11978,7 +11977,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <f>EDATE(A366,1)</f>
         <v>41974</v>
@@ -12003,7 +12002,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="51" t="s">
         <v>273</v>
       </c>
@@ -12021,7 +12020,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>42005</v>
       </c>
@@ -12045,7 +12044,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <f>EDATE(A370,1)</f>
         <v>42036</v>
@@ -12070,7 +12069,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <f t="shared" ref="A372:A385" si="17">EDATE(A371,1)</f>
         <v>42064</v>
@@ -12095,7 +12094,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <f t="shared" si="17"/>
         <v>42095</v>
@@ -12120,7 +12119,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <f t="shared" si="17"/>
         <v>42125</v>
@@ -12147,7 +12146,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39"/>
       <c r="B375" s="20" t="s">
         <v>58</v>
@@ -12166,7 +12165,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39"/>
       <c r="B376" s="20" t="s">
         <v>210</v>
@@ -12183,7 +12182,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39"/>
       <c r="B377" s="20" t="s">
         <v>58</v>
@@ -12202,7 +12201,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39"/>
       <c r="B378" s="20" t="s">
         <v>278</v>
@@ -12219,7 +12218,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <f>EDATE(A374,1)</f>
         <v>42156</v>
@@ -12244,7 +12243,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <f t="shared" si="17"/>
         <v>42186</v>
@@ -12269,7 +12268,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <f t="shared" si="17"/>
         <v>42217</v>
@@ -12290,7 +12289,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -12311,7 +12310,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <f>EDATE(A382,1)</f>
         <v>42278</v>
@@ -12332,7 +12331,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <f t="shared" si="17"/>
         <v>42309</v>
@@ -12353,7 +12352,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -12380,7 +12379,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39"/>
       <c r="B386" s="20" t="s">
         <v>48</v>
@@ -12400,7 +12399,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="51" t="s">
         <v>285</v>
       </c>
@@ -12418,7 +12417,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <v>42370</v>
       </c>
@@ -12438,7 +12437,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <f>EDATE(A388,1)</f>
         <v>42401</v>
@@ -12459,7 +12458,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <f t="shared" ref="A390:A402" si="18">EDATE(A389,1)</f>
         <v>42430</v>
@@ -12486,7 +12485,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <f t="shared" si="18"/>
         <v>42461</v>
@@ -12507,7 +12506,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <f t="shared" si="18"/>
         <v>42491</v>
@@ -12534,7 +12533,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39"/>
       <c r="B393" s="20" t="s">
         <v>48</v>
@@ -12554,7 +12553,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <f>EDATE(A392,1)</f>
         <v>42522</v>
@@ -12581,7 +12580,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <f t="shared" si="18"/>
         <v>42552</v>
@@ -12606,7 +12605,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <f t="shared" si="18"/>
         <v>42583</v>
@@ -12631,7 +12630,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <f t="shared" si="18"/>
         <v>42614</v>
@@ -12658,7 +12657,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39"/>
       <c r="B398" s="20" t="s">
         <v>58</v>
@@ -12677,7 +12676,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39"/>
       <c r="B399" s="20" t="s">
         <v>286</v>
@@ -12694,7 +12693,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <f>EDATE(A397,1)</f>
         <v>42644</v>
@@ -12719,7 +12718,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <f t="shared" si="18"/>
         <v>42675</v>
@@ -12744,7 +12743,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -12771,7 +12770,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39"/>
       <c r="B403" s="20" t="s">
         <v>166</v>
@@ -12793,7 +12792,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39"/>
       <c r="B404" s="20" t="s">
         <v>210</v>
@@ -12813,7 +12812,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>288</v>
@@ -12833,7 +12832,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="51" t="s">
         <v>291</v>
       </c>
@@ -12851,7 +12850,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="39">
         <v>42736</v>
       </c>
@@ -12875,7 +12874,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="39">
         <f>EDATE(A407,1)</f>
         <v>42767</v>
@@ -12900,7 +12899,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="39">
         <f t="shared" ref="A409:A418" si="19">EDATE(A408,1)</f>
         <v>42795</v>
@@ -12925,7 +12924,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="39">
         <f t="shared" si="19"/>
         <v>42826</v>
@@ -12952,7 +12951,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="39">
         <f t="shared" si="19"/>
         <v>42856</v>
@@ -12979,7 +12978,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="39">
         <f t="shared" si="19"/>
         <v>42887</v>
@@ -13000,7 +12999,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="39">
         <f t="shared" si="19"/>
         <v>42917</v>
@@ -13027,7 +13026,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="39"/>
       <c r="B414" s="20" t="s">
         <v>58</v>
@@ -13046,7 +13045,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="39">
         <f>EDATE(A413,1)</f>
         <v>42948</v>
@@ -13067,7 +13066,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="39">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -13088,7 +13087,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="39">
         <f t="shared" si="19"/>
         <v>43009</v>
@@ -13109,7 +13108,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="39">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -13130,7 +13129,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="39">
         <f>EDATE(A418,1)</f>
         <v>43070</v>
@@ -13157,7 +13156,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="51" t="s">
         <v>297</v>
       </c>
@@ -13175,7 +13174,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="39">
         <v>43101</v>
       </c>
@@ -13195,7 +13194,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="39">
         <f>EDATE(A421,1)</f>
         <v>43132</v>
@@ -13222,7 +13221,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="39">
         <f t="shared" ref="A423:A432" si="20">EDATE(A422,1)</f>
         <v>43160</v>
@@ -13243,7 +13242,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="39">
         <f t="shared" si="20"/>
         <v>43191</v>
@@ -13270,7 +13269,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="39">
         <f t="shared" si="20"/>
         <v>43221</v>
@@ -13295,7 +13294,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="39">
         <f t="shared" si="20"/>
         <v>43252</v>
@@ -13316,7 +13315,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="39">
         <f t="shared" si="20"/>
         <v>43282</v>
@@ -13337,7 +13336,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="39">
         <f t="shared" si="20"/>
         <v>43313</v>
@@ -13358,7 +13357,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="39">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -13379,7 +13378,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="39">
         <f t="shared" si="20"/>
         <v>43374</v>
@@ -13404,7 +13403,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="39">
         <f t="shared" si="20"/>
         <v>43405</v>
@@ -13425,7 +13424,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="39">
         <f t="shared" si="20"/>
         <v>43435</v>
@@ -13452,7 +13451,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="39"/>
       <c r="B433" s="20" t="s">
         <v>127</v>
@@ -13472,7 +13471,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="51" t="s">
         <v>302</v>
       </c>
@@ -13490,7 +13489,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="39">
         <v>43466</v>
       </c>
@@ -13510,7 +13509,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="39">
         <f>EDATE(A435,1)</f>
         <v>43497</v>
@@ -13537,7 +13536,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="39">
         <f t="shared" ref="A437:A447" si="21">EDATE(A436,1)</f>
         <v>43525</v>
@@ -13558,7 +13557,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="39">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -13579,7 +13578,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="39">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -13606,7 +13605,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="39"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -13626,7 +13625,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="39">
         <f>EDATE(A439,1)</f>
         <v>43617</v>
@@ -13651,7 +13650,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="39">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -13678,7 +13677,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="39">
         <f t="shared" si="21"/>
         <v>43678</v>
@@ -13699,7 +13698,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="39">
         <f t="shared" si="21"/>
         <v>43709</v>
@@ -13726,7 +13725,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="39">
         <f t="shared" si="21"/>
         <v>43739</v>
@@ -13753,7 +13752,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="39">
         <f t="shared" si="21"/>
         <v>43770</v>
@@ -13774,7 +13773,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="39">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -13799,7 +13798,7 @@
         <v>46722</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="39"/>
       <c r="B448" s="20" t="s">
         <v>71</v>
@@ -13819,7 +13818,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="51" t="s">
         <v>306</v>
       </c>
@@ -13837,7 +13836,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="39">
         <v>43831</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f>EDATE(A450,1)</f>
         <v>43862</v>
@@ -13882,7 +13881,7 @@
       <c r="J451" s="12"/>
       <c r="K451" s="15"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" ref="A452:A461" si="22">EDATE(A451,1)</f>
         <v>43891</v>
@@ -13903,7 +13902,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -13924,7 +13923,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -13949,7 +13948,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -13970,7 +13969,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -13997,7 +13996,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -14018,7 +14017,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -14039,7 +14038,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -14060,7 +14059,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f>EDATE(A459,1)</f>
         <v>44136</v>
@@ -14081,7 +14080,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f t="shared" si="22"/>
         <v>44166</v>
@@ -14108,7 +14107,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39"/>
       <c r="B462" s="20" t="s">
         <v>296</v>
@@ -14130,7 +14129,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="51" t="s">
         <v>312</v>
       </c>
@@ -14148,7 +14147,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39">
         <v>44197</v>
       </c>
@@ -14168,7 +14167,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
         <f>EDATE(A464,1)</f>
         <v>44228</v>
@@ -14189,7 +14188,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
         <f t="shared" ref="A466:A474" si="23">EDATE(A465,1)</f>
         <v>44256</v>
@@ -14210,7 +14209,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -14231,7 +14230,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -14256,7 +14255,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
         <f>EDATE(A468,1)</f>
         <v>44348</v>
@@ -14277,7 +14276,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -14298,7 +14297,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -14319,7 +14318,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -14340,7 +14339,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -14361,7 +14360,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
         <f t="shared" si="23"/>
         <v>44501</v>
@@ -14388,7 +14387,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39"/>
       <c r="B475" s="20" t="s">
         <v>58</v>
@@ -14407,7 +14406,7 @@
         <v>47423</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39"/>
       <c r="B476" s="20" t="s">
         <v>60</v>
@@ -14426,7 +14425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39"/>
       <c r="B477" s="20" t="s">
         <v>296</v>
@@ -14443,7 +14442,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39"/>
       <c r="B478" s="20" t="s">
         <v>58</v>
@@ -14465,7 +14464,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39">
         <f>EDATE(A474,1)</f>
         <v>44531</v>
@@ -14486,7 +14485,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="51" t="s">
         <v>313</v>
       </c>
@@ -14504,7 +14503,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39">
         <v>44562</v>
       </c>
@@ -14524,7 +14523,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
         <f>EDATE(A481,1)</f>
         <v>44593</v>
@@ -14545,7 +14544,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
         <f t="shared" ref="A483:A485" si="24">EDATE(A482,1)</f>
         <v>44621</v>
@@ -14566,7 +14565,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39">
         <f t="shared" si="24"/>
         <v>44652</v>
@@ -14587,7 +14586,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39">
         <f t="shared" si="24"/>
         <v>44682</v>
@@ -14614,7 +14613,7 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39"/>
       <c r="B486" s="20" t="s">
         <v>51</v>
@@ -14633,7 +14632,7 @@
         <v>47239</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39"/>
       <c r="B487" s="20" t="s">
         <v>51</v>
@@ -14652,7 +14651,7 @@
         <v>47270</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39">
         <v>44713</v>
       </c>
@@ -14678,7 +14677,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44743</v>
       </c>
@@ -14698,7 +14697,7 @@
       <c r="J489" s="12"/>
       <c r="K489" s="15"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44774</v>
       </c>
@@ -14718,7 +14717,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44805</v>
       </c>
@@ -14742,7 +14741,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="15" t="s">
         <v>316</v>
@@ -14764,7 +14763,7 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44835</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44866</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44896</v>
       </c>
@@ -14842,7 +14841,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>318</v>
@@ -14862,7 +14861,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="56" t="s">
         <v>314</v>
       </c>
@@ -14880,7 +14879,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44927</v>
       </c>
@@ -14900,7 +14899,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44958</v>
       </c>
@@ -14920,7 +14919,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44986</v>
       </c>
@@ -14946,7 +14945,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>316</v>
@@ -14968,7 +14967,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>45017</v>
       </c>
@@ -14992,7 +14991,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>324</v>
@@ -15012,11 +15011,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>45047</v>
       </c>
-      <c r="B504" s="20"/>
+      <c r="B504" s="20" t="s">
+        <v>316</v>
+      </c>
       <c r="C504" s="13"/>
       <c r="D504" s="38"/>
       <c r="E504" s="9"/>
@@ -15025,12 +15026,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H504" s="38"/>
+      <c r="H504" s="38">
+        <v>1</v>
+      </c>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
-    </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K504" s="57">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>45078</v>
       </c>
@@ -15063,10 +15068,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15089,7 +15094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15097,21 +15102,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
@@ -15124,7 +15129,7 @@
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -15153,7 +15158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>11.714</v>
       </c>
@@ -15183,17 +15188,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -15214,7 +15219,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -15241,7 +15246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -15267,7 +15272,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -15293,7 +15298,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -15319,7 +15324,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -15345,7 +15350,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -15371,7 +15376,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -15397,7 +15402,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -15423,7 +15428,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -15443,7 +15448,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -15463,7 +15468,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -15483,7 +15488,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -15504,7 +15509,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -15525,7 +15530,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -15546,7 +15551,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -15567,7 +15572,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -15588,7 +15593,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -15609,7 +15614,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -15630,7 +15635,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -15651,7 +15656,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -15672,7 +15677,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -15693,7 +15698,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -15714,7 +15719,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -15735,7 +15740,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -15756,7 +15761,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -15777,7 +15782,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -15798,7 +15803,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -15819,7 +15824,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -15840,7 +15845,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -15861,7 +15866,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -15882,7 +15887,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -15903,7 +15908,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -15912,7 +15917,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -15921,7 +15926,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -15930,7 +15935,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -15939,7 +15944,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -15948,7 +15953,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -15957,7 +15962,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -15966,7 +15971,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -15975,7 +15980,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -15984,7 +15989,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -15993,7 +15998,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -16002,7 +16007,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -16011,7 +16016,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -16020,7 +16025,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -16029,7 +16034,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -16038,7 +16043,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -16047,7 +16052,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -16056,7 +16061,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -16065,7 +16070,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -16074,7 +16079,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -16083,7 +16088,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -16092,7 +16097,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -16101,7 +16106,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -16110,7 +16115,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -16119,7 +16124,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -16128,7 +16133,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -16137,7 +16142,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -16146,7 +16151,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -16155,7 +16160,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -16164,7 +16169,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
